--- a/Unit Functions/Infinities/Infinities_Continuous.xlsx
+++ b/Unit Functions/Infinities/Infinities_Continuous.xlsx
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -247,7 +247,6 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2227,19 +2226,19 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="16.86"/>
-    <col customWidth="1" min="4" max="6" width="43.57"/>
+    <col customWidth="1" min="1" max="1" width="34.14"/>
+    <col customWidth="1" min="2" max="2" width="16.86"/>
+    <col customWidth="1" min="3" max="5" width="43.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
@@ -2247,16 +2246,15 @@
         <v>1.5578</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:E2" si="1">((sum(C6)+C11)^-0.0044)</f>
+        <v>0.9645472441</v>
+      </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:F2" si="1">((sum(D6)+D11)^-0.0044)</f>
-        <v>0.9645472441</v>
-      </c>
-      <c r="E2" s="5">
         <f t="shared" si="1"/>
         <v>1.05612702</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E2" s="5">
         <f t="shared" si="1"/>
         <v>1.156401917</v>
       </c>
@@ -2267,17 +2265,16 @@
         <v>3.1156</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:E3" si="2">(C5/C4)-(C4/C5)</f>
+        <v>-0.0001060889994</v>
+      </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:F3" si="2">(D5/D4)-(D4/D5)</f>
-        <v>-0.0001060889994</v>
+        <f t="shared" si="2"/>
+        <v>-0.00008171825777</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" si="2"/>
-        <v>-0.00008171825777</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" si="2"/>
         <v>-0.000060875838</v>
       </c>
     </row>
@@ -2287,17 +2284,16 @@
         <v>4.6734</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="7">
+        <f>(44.44+44.44^-((sum(C6:C7)+E11)^-0.0044))</f>
+        <v>44.46576336</v>
+      </c>
       <c r="D4" s="7">
-        <f>(44.44+44.44^-((sum(D6:D7)+F11)^-0.0044))</f>
-        <v>44.46576336</v>
+        <f>(44.44+44.44^-((sum(D6:D7)+E11)^-0.0044))</f>
+        <v>44.45820262</v>
       </c>
       <c r="E4" s="7">
-        <f>(44.44+44.44^-((sum(E6:E7)+F11)^-0.0044))</f>
-        <v>44.45820262</v>
-      </c>
-      <c r="F4" s="7">
-        <f>(44.44+44.44^-((sum(F6:F7)+F11)^-0.0044))</f>
+        <f>(44.44+44.44^-((sum(E6:E7)+E11)^-0.0044))</f>
         <v>44.45244345</v>
       </c>
     </row>
@@ -2307,17 +2303,16 @@
         <v>6.2312</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:E5" si="4">(44.44+44.44^-(sum(C8:C12)^-0.0044))</f>
+        <v>44.46340476</v>
+      </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:F5" si="4">(44.44+44.44^-(sum(D8:D12)^-0.0044))</f>
-        <v>44.46340476</v>
+        <f t="shared" si="4"/>
+        <v>44.45638613</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="4"/>
-        <v>44.45638613</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="4"/>
         <v>44.45109043</v>
       </c>
     </row>
@@ -2327,16 +2322,15 @@
         <v>7.789</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="9">
+        <f>SUM(A:B)</f>
+        <v>3654.5988</v>
+      </c>
       <c r="D6" s="9">
-        <f>SUM(A:C)</f>
-        <v>3654.5988</v>
+        <f t="shared" ref="D6:E6" si="5">C12/19.01</f>
+        <v>0.000004073473443</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" ref="E6:F6" si="5">D12/19.01</f>
-        <v>0.000004073473443</v>
-      </c>
-      <c r="F6" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2347,17 +2341,16 @@
         <v>9.3468</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="10">
+        <f t="shared" ref="C7:E7" si="6">C6/19.01</f>
+        <v>192.2461231</v>
+      </c>
       <c r="D7" s="10">
-        <f t="shared" ref="D7:F7" si="6">D6/19.01</f>
-        <v>192.2461231</v>
+        <f t="shared" si="6"/>
+        <v>0.0000002142805598</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="6"/>
-        <v>0.0000002142805598</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2367,17 +2360,16 @@
         <v>10.9046</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="10">
+        <f t="shared" ref="C8:E8" si="7">C7/19.01</f>
+        <v>10.11289443</v>
+      </c>
       <c r="D8" s="10">
-        <f t="shared" ref="D8:F8" si="7">D7/19.01</f>
-        <v>10.11289443</v>
+        <f t="shared" si="7"/>
+        <v>0.00000001127199157</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="7"/>
-        <v>0.00000001127199157</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2387,17 +2379,16 @@
         <v>12.4624</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="10">
+        <f t="shared" ref="C9:E9" si="8">C8/19.01</f>
+        <v>0.5319776133</v>
+      </c>
       <c r="D9" s="10">
-        <f t="shared" ref="D9:F9" si="8">D8/19.01</f>
-        <v>0.5319776133</v>
+        <f t="shared" si="8"/>
+        <v>0.0000000005929506352</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="8"/>
-        <v>0.0000000005929506352</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2407,19 +2398,18 @@
         <v>14.0202</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="10">
+        <f t="shared" ref="C10:E10" si="9">C9/19.01</f>
+        <v>0.02798409328</v>
+      </c>
       <c r="D10" s="10">
-        <f t="shared" ref="D10:F10" si="9">D9/19.01</f>
-        <v>0.02798409328</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
@@ -2427,19 +2417,18 @@
         <v>15.578</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11:E11" si="10">C10/19.01</f>
+        <v>0.00147207224</v>
+      </c>
       <c r="D11" s="10">
-        <f t="shared" ref="D11:F11" si="10">D10/19.01</f>
-        <v>0.00147207224</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -2447,19 +2436,18 @@
         <v>17.1358</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="11">
+        <f t="shared" ref="C12:E12" si="11">C11/19.01</f>
+        <v>0.00007743673014</v>
+      </c>
       <c r="D12" s="11">
-        <f t="shared" ref="D12:F12" si="11">D11/19.01</f>
-        <v>0.00007743673014</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F12" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
@@ -2467,41 +2455,38 @@
         <v>18.6936</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <f t="shared" si="3"/>
         <v>20.2514</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <f t="shared" si="3"/>
         <v>21.8092</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="20">
-        <f>D2-'1.14'!C2</f>
+      <c r="B15" s="2"/>
+      <c r="C15" s="19">
+        <f>C2-'1.14'!C2</f>
         <v>0.000000002212551475</v>
       </c>
-      <c r="E15" s="20">
-        <f>E2-'1.14'!D2</f>
+      <c r="D15" s="19">
+        <f>D2-'1.14'!D2</f>
         <v>0.005388699351</v>
       </c>
-      <c r="F15" s="20">
-        <f>F2-'1.14'!E2</f>
+      <c r="E15" s="19">
+        <f>E2-'1.14'!E2</f>
         <v>0.01177056016</v>
       </c>
     </row>
@@ -2510,11 +2495,10 @@
         <f t="shared" si="3"/>
         <v>23.367</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2">
@@ -2522,16 +2506,15 @@
         <v>24.9248</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="15">
+        <f>SUM(C15:E15)</f>
+        <v>0.01715926172</v>
+      </c>
       <c r="D17" s="15">
-        <f>SUM(D15:F15)</f>
-        <v>0.01715926172</v>
-      </c>
-      <c r="E17" s="15">
-        <f>D17+D17</f>
+        <f>C17+C17</f>
         <v>0.03431852344</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
@@ -2540,9 +2523,8 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2">
@@ -2551,9 +2533,8 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
@@ -2562,9 +2543,8 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
@@ -2573,9 +2553,8 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2">
@@ -2584,9 +2563,8 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2">
@@ -2595,9 +2573,8 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
@@ -2606,9 +2583,8 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
@@ -2617,9 +2593,8 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
@@ -2628,9 +2603,8 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
@@ -2639,9 +2613,8 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -2649,10 +2622,9 @@
         <v>42.0606</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
@@ -2660,10 +2632,9 @@
         <v>43.6184</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
@@ -2671,10 +2642,9 @@
         <v>45.1762</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
@@ -2682,10 +2652,9 @@
         <v>46.734</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
@@ -2693,10 +2662,9 @@
         <v>48.2918</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
@@ -2704,10 +2672,9 @@
         <v>49.8496</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
@@ -2715,10 +2682,9 @@
         <v>51.4074</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
@@ -2726,10 +2692,9 @@
         <v>52.9652</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
@@ -2737,10 +2702,9 @@
         <v>54.523</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
@@ -2748,10 +2712,9 @@
         <v>56.0808</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
@@ -2759,10 +2722,9 @@
         <v>57.6386</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
@@ -2770,10 +2732,9 @@
         <v>59.1964</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
@@ -2781,10 +2742,9 @@
         <v>60.7542</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
@@ -2792,10 +2752,9 @@
         <v>62.312</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
@@ -2803,10 +2762,9 @@
         <v>63.8698</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
@@ -2814,10 +2772,9 @@
         <v>65.4276</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
@@ -2825,10 +2782,9 @@
         <v>66.9854</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
@@ -2836,10 +2792,9 @@
         <v>68.5432</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -2847,10 +2802,9 @@
         <v>70.101</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
@@ -2858,10 +2812,9 @@
         <v>71.6588</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
@@ -2869,10 +2822,9 @@
         <v>73.2166</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
@@ -2880,10 +2832,9 @@
         <v>74.7744</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -2891,10 +2842,9 @@
         <v>76.3322</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
@@ -2902,10 +2852,9 @@
         <v>77.89</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
@@ -2913,10 +2862,9 @@
         <v>79.4478</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
@@ -2924,10 +2872,9 @@
         <v>81.0056</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
@@ -2935,10 +2882,9 @@
         <v>82.5634</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
@@ -2946,10 +2892,9 @@
         <v>84.1212</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
@@ -2957,10 +2902,10 @@
         <v>85.679</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -2980,7 +2925,6 @@
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
@@ -2988,10 +2932,9 @@
         <v>87.2368</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2">
@@ -2999,10 +2942,9 @@
         <v>88.7946</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2">
@@ -3010,10 +2952,9 @@
         <v>90.3524</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -3021,10 +2962,9 @@
         <v>91.9102</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
@@ -3032,10 +2972,9 @@
         <v>93.468</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
@@ -3043,10 +2982,9 @@
         <v>95.0258</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
@@ -3054,10 +2992,9 @@
         <v>96.5836</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
@@ -3065,10 +3002,9 @@
         <v>98.1414</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
@@ -3076,10 +3012,9 @@
         <v>99.6992</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
@@ -3087,10 +3022,9 @@
         <v>101.257</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
@@ -3098,10 +3032,9 @@
         <v>102.8148</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
@@ -3109,10 +3042,9 @@
         <v>104.3726</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
@@ -3120,10 +3052,9 @@
         <v>105.9304</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
     </row>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>

--- a/Unit Functions/Infinities/Infinities_Continuous.xlsx
+++ b/Unit Functions/Infinities/Infinities_Continuous.xlsx
@@ -12,9 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Single + Multi Variable : Bridged</t>
+  </si>
+  <si>
+    <t>Differential Loss Multiplied by {1_UNIT} of defraction : Towards a Multivariable State</t>
+  </si>
+  <si>
+    <t>Integer Multiplied by {5_UNITS} of defraction : Towards a Single Variable State</t>
+  </si>
+  <si>
+    <t>Resultant Loss differential : Through nucleated transitions</t>
+  </si>
+  <si>
+    <t>Single Plus Multi Variable Divided by Defraction = End State ( UNIT_OF_ENERGY )</t>
   </si>
   <si>
     <t>Differential Matrices</t>
@@ -224,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,6 +257,9 @@
     <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="3" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -482,7 +497,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3">
+        <f>1-C2</f>
+        <v>0.03545275808</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
@@ -721,8 +739,13 @@
         <v>21.8092</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="15">
+        <f>C1/0.1679379236</f>
+        <v>0.2111063262</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -731,8 +754,13 @@
         <v>23.367</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="15">
+        <f>(C2/(0.1679379236^5))</f>
+        <v>7220.705083</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>2</v>
+      </c>
       <c r="E16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -741,8 +769,13 @@
         <v>24.9248</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="15">
+        <f>C3/(0.1679379236^5)</f>
+        <v>-0.7507939444</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -761,8 +794,13 @@
         <v>28.0404</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="16">
+        <f>1+C17</f>
+        <v>0.2492060556</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -1131,24 +1169,24 @@
         <v>85.679</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
@@ -2465,8 +2503,8 @@
         <v>20.2514</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="18" t="s">
-        <v>1</v>
+      <c r="C14" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2477,15 +2515,15 @@
         <v>21.8092</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="19">
+      <c r="C15" s="20">
         <f>C2-'1.14'!C2</f>
         <v>0.000000002212551475</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="20">
         <f>D2-'1.14'!D2</f>
         <v>0.005388699351</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="20">
         <f>E2-'1.14'!E2</f>
         <v>0.01177056016</v>
       </c>
@@ -2496,9 +2534,9 @@
         <v>23.367</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2">
@@ -2902,29 +2940,29 @@
         <v>85.679</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
